--- a/data/trans_orig/P2A_enfcro_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>109431</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92260</v>
+        <v>92076</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>127416</v>
+        <v>128168</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2214914898698805</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1867369368019311</v>
+        <v>0.1863646093287127</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.257893491289474</v>
+        <v>0.2594161269296075</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>181</v>
@@ -765,19 +765,19 @@
         <v>170752</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>150588</v>
+        <v>149535</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>190735</v>
+        <v>190331</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3652542223962195</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3221208536025116</v>
+        <v>0.3198676398638302</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.407998626776144</v>
+        <v>0.4071352461930344</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>294</v>
@@ -786,19 +786,19 @@
         <v>280183</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>252146</v>
+        <v>252895</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>308261</v>
+        <v>309483</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2913862456878507</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2622276065339308</v>
+        <v>0.263006461268137</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3205867190854025</v>
+        <v>0.3218578482684346</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>384633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>366648</v>
+        <v>365896</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>401804</v>
+        <v>401988</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7785085101301195</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.742106508710526</v>
+        <v>0.7405838730703926</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.813263063198069</v>
+        <v>0.8136353906712874</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>308</v>
@@ -836,19 +836,19 @@
         <v>296737</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276754</v>
+        <v>277158</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>316901</v>
+        <v>317954</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6347457776037805</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.592001373223856</v>
+        <v>0.5928647538069656</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6778791463974885</v>
+        <v>0.6801323601361698</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>694</v>
@@ -857,19 +857,19 @@
         <v>681370</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>653292</v>
+        <v>652070</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>709407</v>
+        <v>708658</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7086137543121493</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6794132809145975</v>
+        <v>0.6781421517315653</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7377723934660693</v>
+        <v>0.736993538731863</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>201888</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>178924</v>
+        <v>176358</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>227697</v>
+        <v>227070</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2744949007162744</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2432725359018365</v>
+        <v>0.239783398365566</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3095854012103417</v>
+        <v>0.3087331120261315</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>259</v>
@@ -982,19 +982,19 @@
         <v>272788</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>247494</v>
+        <v>248725</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>299727</v>
+        <v>299028</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4361160944978487</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3956780617226451</v>
+        <v>0.3976457354680754</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4791838991550266</v>
+        <v>0.4780666267852977</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>456</v>
@@ -1003,19 +1003,19 @@
         <v>474676</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>440869</v>
+        <v>440593</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>511902</v>
+        <v>511073</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3487743738199231</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3239343101484022</v>
+        <v>0.3237314718651946</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3761269098275752</v>
+        <v>0.3755177715338062</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>533601</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>507792</v>
+        <v>508419</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>556565</v>
+        <v>559131</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7255050992837256</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6904145987896583</v>
+        <v>0.6912668879738685</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7567274640981636</v>
+        <v>0.7602166016344339</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>332</v>
@@ -1053,19 +1053,19 @@
         <v>352706</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325767</v>
+        <v>326466</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>378000</v>
+        <v>376769</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5638839055021514</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5208161008449733</v>
+        <v>0.5219333732147025</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6043219382773548</v>
+        <v>0.602354264531925</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>838</v>
@@ -1074,19 +1074,19 @@
         <v>886306</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>849080</v>
+        <v>849909</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>920113</v>
+        <v>920389</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.651225626180077</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6238730901724246</v>
+        <v>0.6244822284661938</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6760656898515979</v>
+        <v>0.6762685281348054</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>214604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>191418</v>
+        <v>192677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>240247</v>
+        <v>240108</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3360180478995477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2997140577124374</v>
+        <v>0.3016853037150077</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3761693935572731</v>
+        <v>0.3759511816297879</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>337</v>
@@ -1199,19 +1199,19 @@
         <v>354865</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>327045</v>
+        <v>327880</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>381016</v>
+        <v>382050</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5144884375933503</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4741547982838528</v>
+        <v>0.4753651584443315</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5524022855909593</v>
+        <v>0.5539011581342381</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>543</v>
@@ -1220,19 +1220,19 @@
         <v>569469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>533455</v>
+        <v>532282</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>604083</v>
+        <v>607069</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4286842846697846</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4015734065405305</v>
+        <v>0.4006905672628766</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4547403426654511</v>
+        <v>0.4569884628745149</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>424064</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>398421</v>
+        <v>398560</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>447250</v>
+        <v>445991</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6639819521004523</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6238306064427268</v>
+        <v>0.624048818370212</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7002859422875625</v>
+        <v>0.6983146962849923</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>321</v>
@@ -1270,19 +1270,19 @@
         <v>334879</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>308728</v>
+        <v>307694</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>362699</v>
+        <v>361864</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4855115624066497</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4475977144090407</v>
+        <v>0.446098841865762</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5258452017161471</v>
+        <v>0.5246348415556684</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>728</v>
@@ -1291,19 +1291,19 @@
         <v>758943</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>724329</v>
+        <v>721343</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>794957</v>
+        <v>796130</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5713157153302154</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5452596573345487</v>
+        <v>0.543011537125485</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5984265934594695</v>
+        <v>0.5993094327371234</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>246061</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>223505</v>
+        <v>221550</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>269351</v>
+        <v>267763</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4739718075789274</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4305228913375644</v>
+        <v>0.4267579379608673</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5188343672976592</v>
+        <v>0.5157740774861024</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>322</v>
@@ -1416,19 +1416,19 @@
         <v>325826</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>302204</v>
+        <v>302967</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>346893</v>
+        <v>346012</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6318849553690946</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5860730762882171</v>
+        <v>0.5875538085000112</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6727407794452342</v>
+        <v>0.6710307137947547</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>555</v>
@@ -1437,19 +1437,19 @@
         <v>571887</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>535452</v>
+        <v>541006</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>603863</v>
+        <v>604358</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.552660938594899</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.517450222830676</v>
+        <v>0.5228174683044043</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5835617659569933</v>
+        <v>0.5840402759294415</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>273086</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>249796</v>
+        <v>251384</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>295642</v>
+        <v>297597</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5260281924210727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4811656327023409</v>
+        <v>0.4842259225138977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5694771086624356</v>
+        <v>0.5732420620391327</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>180</v>
@@ -1487,19 +1487,19 @@
         <v>189816</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>168749</v>
+        <v>169630</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>213438</v>
+        <v>212675</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3681150446309054</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3272592205547658</v>
+        <v>0.3289692862052453</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4139269237117829</v>
+        <v>0.4124461914999888</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>431</v>
@@ -1508,19 +1508,19 @@
         <v>462902</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>430926</v>
+        <v>430431</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>499337</v>
+        <v>493783</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.447339061405101</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4164382340430066</v>
+        <v>0.4159597240705589</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4825497771693238</v>
+        <v>0.4771825316955957</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>274023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>255774</v>
+        <v>255867</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>291253</v>
+        <v>291139</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7085998270826044</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6614099907552132</v>
+        <v>0.661649624489139</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.753155341114304</v>
+        <v>0.7528609824272542</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>306</v>
@@ -1633,19 +1633,19 @@
         <v>312661</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>295158</v>
+        <v>295467</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>329347</v>
+        <v>328291</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7739406385925023</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7306140319839559</v>
+        <v>0.7313798728410479</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8152446307427434</v>
+        <v>0.8126302345077434</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>584</v>
@@ -1654,19 +1654,19 @@
         <v>586684</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>561738</v>
+        <v>563998</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>608640</v>
+        <v>612387</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7419840496315694</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7104350229364137</v>
+        <v>0.7132926321396844</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7697525410648764</v>
+        <v>0.7744907914484185</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>112687</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>95457</v>
+        <v>95571</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>130936</v>
+        <v>130843</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2914001729173956</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2468446588856958</v>
+        <v>0.2471390175727456</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3385900092447866</v>
+        <v>0.338350375510861</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>90</v>
@@ -1704,19 +1704,19 @@
         <v>91325</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>74639</v>
+        <v>75695</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>108828</v>
+        <v>108519</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2260593614074978</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1847553692572566</v>
+        <v>0.1873697654922566</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.269385968016044</v>
+        <v>0.2686201271589519</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>204</v>
@@ -1725,19 +1725,19 @@
         <v>204012</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>182056</v>
+        <v>178309</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>228958</v>
+        <v>226698</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2580159503684306</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2302474589351236</v>
+        <v>0.2255092085515815</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2895649770635862</v>
+        <v>0.2867073678603154</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>225132</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>209115</v>
+        <v>209933</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>238204</v>
+        <v>238314</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7694651749561701</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7147203094074909</v>
+        <v>0.7175144970889838</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8141403674575545</v>
+        <v>0.8145163228240153</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>329</v>
@@ -1850,19 +1850,19 @@
         <v>303650</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>291718</v>
+        <v>291603</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>314453</v>
+        <v>314592</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8854468614926101</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8506524377421203</v>
+        <v>0.8503192949821584</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9169504872151205</v>
+        <v>0.9173546918716813</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>563</v>
@@ -1871,19 +1871,19 @@
         <v>528782</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>509214</v>
+        <v>510264</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>547296</v>
+        <v>546768</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8320505402956658</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8012593481066971</v>
+        <v>0.8029111657396545</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8611829902718299</v>
+        <v>0.8603521389403136</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>67451</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>54379</v>
+        <v>54269</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>83468</v>
+        <v>82650</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.23053482504383</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1858596325424455</v>
+        <v>0.1854836771759847</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.285279690592509</v>
+        <v>0.2824855029110162</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>42</v>
@@ -1921,19 +1921,19 @@
         <v>39284</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28481</v>
+        <v>28342</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51216</v>
+        <v>51331</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1145531385073899</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08304951278487933</v>
+        <v>0.08264530812831876</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1493475622578796</v>
+        <v>0.1496807050178411</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -1942,19 +1942,19 @@
         <v>106735</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>88221</v>
+        <v>88749</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>126303</v>
+        <v>125253</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1679494597043341</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1388170097281701</v>
+        <v>0.1396478610596863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1987406518933027</v>
+        <v>0.1970888342603451</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>182663</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>172859</v>
+        <v>171313</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>191470</v>
+        <v>190789</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8703068394645347</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8235962135832986</v>
+        <v>0.8162327859769255</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9122701647241356</v>
+        <v>0.9090270999333951</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>260</v>
@@ -2067,19 +2067,19 @@
         <v>300227</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>287252</v>
+        <v>286407</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>310100</v>
+        <v>310181</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8991320863237986</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8602714462247024</v>
+        <v>0.8577430610966258</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9286995228694648</v>
+        <v>0.9289400101490758</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>451</v>
@@ -2088,19 +2088,19 @@
         <v>482890</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>466871</v>
+        <v>467599</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>497283</v>
+        <v>497282</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8880066180976932</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8585484774617048</v>
+        <v>0.859887480785119</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9144742651204787</v>
+        <v>0.914473566927032</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>27220</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18413</v>
+        <v>19094</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>37024</v>
+        <v>38570</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1296931605354653</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0877298352758651</v>
+        <v>0.09097290006660499</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1764037864167015</v>
+        <v>0.1837672140230746</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>30</v>
@@ -2138,19 +2138,19 @@
         <v>33681</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23808</v>
+        <v>23727</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>46656</v>
+        <v>47501</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1008679136762013</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07130047713053538</v>
+        <v>0.07105998985092427</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1397285537752979</v>
+        <v>0.1422569389033747</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>59</v>
@@ -2159,19 +2159,19 @@
         <v>60901</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>46508</v>
+        <v>46509</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>76920</v>
+        <v>76192</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1119933819023068</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08552573487952136</v>
+        <v>0.08552643307296806</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1414515225382952</v>
+        <v>0.140112519214881</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>1453801</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1392370</v>
+        <v>1402180</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1508157</v>
+        <v>1515476</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.443699761409807</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4249510226216046</v>
+        <v>0.427944986904724</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4602890864399785</v>
+        <v>0.4625229735471664</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1994</v>
@@ -2284,19 +2284,19 @@
         <v>2040770</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1981989</v>
+        <v>1986350</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2091213</v>
+        <v>2094494</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6039217156034284</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5865265152865727</v>
+        <v>0.587817075332582</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6188490451500129</v>
+        <v>0.6198199262428633</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3446</v>
@@ -2305,19 +2305,19 @@
         <v>3494572</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3402688</v>
+        <v>3419301</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3572080</v>
+        <v>3579993</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5250463201909409</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5112409849273009</v>
+        <v>0.5137370196283521</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5366915484612661</v>
+        <v>0.5378804098693706</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1822742</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1768386</v>
+        <v>1761067</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1884173</v>
+        <v>1874363</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.556300238590193</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5397109135600215</v>
+        <v>0.5374770264528339</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5750489773783954</v>
+        <v>0.5720550130952761</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1303</v>
@@ -2355,19 +2355,19 @@
         <v>1338427</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1287984</v>
+        <v>1284703</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1397208</v>
+        <v>1392847</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3960782843965715</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.381150954849987</v>
+        <v>0.3801800737571366</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4134734847134272</v>
+        <v>0.4121829246674181</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3065</v>
@@ -2376,19 +2376,19 @@
         <v>3161169</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3083661</v>
+        <v>3075748</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3253053</v>
+        <v>3236440</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4749536798090591</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4633084515387341</v>
+        <v>0.4621195901306294</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4887590150726996</v>
+        <v>0.4862629803716479</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>143008</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>124643</v>
+        <v>123140</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>163153</v>
+        <v>161479</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3148937653737184</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2744565779128775</v>
+        <v>0.2711461397017107</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3592512253311999</v>
+        <v>0.3555662415976653</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>172</v>
@@ -2744,19 +2744,19 @@
         <v>175913</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>157234</v>
+        <v>155832</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>197706</v>
+        <v>197041</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4088821242692597</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3654660177618101</v>
+        <v>0.3622057512118867</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4595365364064551</v>
+        <v>0.4579893501002375</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>315</v>
@@ -2765,19 +2765,19 @@
         <v>318921</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>291700</v>
+        <v>287947</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>351236</v>
+        <v>346357</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3606170722358079</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3298367555143804</v>
+        <v>0.3255935525933797</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3971572814066553</v>
+        <v>0.3916401038806586</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>311138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>290993</v>
+        <v>292667</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>329503</v>
+        <v>331006</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6851062346262816</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6407487746688001</v>
+        <v>0.6444337584023359</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7255434220871225</v>
+        <v>0.7288538602982894</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -2815,19 +2815,19 @@
         <v>254317</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>232524</v>
+        <v>233189</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>272996</v>
+        <v>274398</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5911178757307404</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5404634635935448</v>
+        <v>0.5420106498997624</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6345339822381898</v>
+        <v>0.6377942487881133</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>552</v>
@@ -2836,19 +2836,19 @@
         <v>565455</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>533140</v>
+        <v>538019</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>592676</v>
+        <v>596429</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.639382927764192</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6028427185933448</v>
+        <v>0.6083598961193412</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6701632444856199</v>
+        <v>0.67440644740662</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>265562</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>238958</v>
+        <v>238018</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>290934</v>
+        <v>291095</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.386503820834705</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3477849053590262</v>
+        <v>0.346415946954916</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.423431134937228</v>
+        <v>0.4236653497628501</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>270</v>
@@ -2961,19 +2961,19 @@
         <v>289244</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>265509</v>
+        <v>263285</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>315604</v>
+        <v>315370</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4739718354235271</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4350793838716097</v>
+        <v>0.4314339248080588</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5171670334524</v>
+        <v>0.5167837036793806</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>533</v>
@@ -2982,19 +2982,19 @@
         <v>554805</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>521447</v>
+        <v>518092</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>599116</v>
+        <v>590664</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4276477987038244</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4019347574449472</v>
+        <v>0.3993490049920148</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.461802348365885</v>
+        <v>0.4552879956031776</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>421525</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>396153</v>
+        <v>395992</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>448129</v>
+        <v>449069</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.613496179165295</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5765688650627719</v>
+        <v>0.5763346502371499</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6522150946409736</v>
+        <v>0.653584053045084</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>301</v>
@@ -3032,19 +3032,19 @@
         <v>321011</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>294651</v>
+        <v>294885</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>344746</v>
+        <v>346970</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5260281645764728</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4828329665476001</v>
+        <v>0.4832162963206194</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5649206161283904</v>
+        <v>0.5685660751919412</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>705</v>
@@ -3053,19 +3053,19 @@
         <v>742537</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>698226</v>
+        <v>706678</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>775895</v>
+        <v>779250</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5723522012961757</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5381976516341149</v>
+        <v>0.5447120043968222</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5980652425550528</v>
+        <v>0.6006509950079851</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>279903</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>253634</v>
+        <v>251940</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>305565</v>
+        <v>307057</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4104980351634435</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3719713914978202</v>
+        <v>0.3694882744148827</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4481320458799761</v>
+        <v>0.4503203066202001</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>380</v>
@@ -3178,19 +3178,19 @@
         <v>404285</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>377901</v>
+        <v>378066</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>431305</v>
+        <v>431354</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.568734686731771</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5316187048453991</v>
+        <v>0.5318499944328465</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6067453790801447</v>
+        <v>0.6068138129578113</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>643</v>
@@ -3199,19 +3199,19 @@
         <v>684188</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>637208</v>
+        <v>647827</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>723187</v>
+        <v>726017</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.491263077656937</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.457530186020246</v>
+        <v>0.4651551499353065</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5192651618930868</v>
+        <v>0.5212974895647776</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>401960</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>376298</v>
+        <v>374806</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>428229</v>
+        <v>429923</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5895019648365565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5518679541200239</v>
+        <v>0.5496796933797994</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.62802860850218</v>
+        <v>0.6305117255851173</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>287</v>
@@ -3249,19 +3249,19 @@
         <v>306565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>279545</v>
+        <v>279496</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332949</v>
+        <v>332784</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4312653132682291</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3932546209198554</v>
+        <v>0.3931861870421887</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.468381295154601</v>
+        <v>0.4681500055671535</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>675</v>
@@ -3270,19 +3270,19 @@
         <v>708524</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>669525</v>
+        <v>666695</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>755504</v>
+        <v>744885</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.508736922343063</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4807348381069138</v>
+        <v>0.4787025104352229</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.542469813979754</v>
+        <v>0.5348448500646936</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>307462</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>281416</v>
+        <v>278945</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>336922</v>
+        <v>335100</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5002502038212343</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4578726087526039</v>
+        <v>0.4538516898558314</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5481819213981783</v>
+        <v>0.5452183310830674</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>381</v>
@@ -3395,19 +3395,19 @@
         <v>436738</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>410443</v>
+        <v>411204</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>459983</v>
+        <v>459232</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7087607644813599</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.666087610820445</v>
+        <v>0.6673233093264789</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7464841362069951</v>
+        <v>0.7452657454878912</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>659</v>
@@ -3416,19 +3416,19 @@
         <v>744200</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>707401</v>
+        <v>708476</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>781201</v>
+        <v>779103</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6046395218652537</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5747412034431388</v>
+        <v>0.5756148489673433</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6347016767490531</v>
+        <v>0.6329974038571919</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>307155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>277695</v>
+        <v>279517</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>333201</v>
+        <v>335672</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4997497961787657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4518180786018218</v>
+        <v>0.4547816689169327</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5421273912473962</v>
+        <v>0.5461483101441688</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>158</v>
@@ -3466,19 +3466,19 @@
         <v>179461</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>156216</v>
+        <v>156967</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>205756</v>
+        <v>204995</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.29123923551864</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2535158637930052</v>
+        <v>0.2547342545121091</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3339123891795551</v>
+        <v>0.3326766906735214</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>428</v>
@@ -3487,19 +3487,19 @@
         <v>486616</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>449615</v>
+        <v>451713</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>523415</v>
+        <v>522340</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3953604781347463</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3652983232509467</v>
+        <v>0.3670025961428079</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4252587965568612</v>
+        <v>0.4243851510326566</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>324875</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>306132</v>
+        <v>304672</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>342644</v>
+        <v>342599</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7565272270407712</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7128804156301749</v>
+        <v>0.7094806367946691</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7979054337112628</v>
+        <v>0.7978006907630378</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>352</v>
@@ -3612,19 +3612,19 @@
         <v>386284</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>366214</v>
+        <v>368825</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>398171</v>
+        <v>400574</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8626253902033341</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8178075543677454</v>
+        <v>0.8236387925180846</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8891725860040026</v>
+        <v>0.8945380927184294</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>649</v>
@@ -3633,19 +3633,19 @@
         <v>711158</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>684644</v>
+        <v>686952</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>734177</v>
+        <v>733612</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8106872568633129</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7804620708466862</v>
+        <v>0.7830929094216393</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8369277934325174</v>
+        <v>0.8362836902753635</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>104554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>86785</v>
+        <v>86830</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>123297</v>
+        <v>124757</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2434727729592288</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2020945662887377</v>
+        <v>0.2021993092369624</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2871195843698251</v>
+        <v>0.2905193632053309</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>54</v>
@@ -3683,19 +3683,19 @@
         <v>61516</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49629</v>
+        <v>47226</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81586</v>
+        <v>78975</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1373746097966659</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1108274139959974</v>
+        <v>0.1054619072815706</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1821924456322547</v>
+        <v>0.1763612074819154</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>150</v>
@@ -3704,19 +3704,19 @@
         <v>166071</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>143052</v>
+        <v>143617</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>192585</v>
+        <v>190277</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1893127431366871</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1630722065674827</v>
+        <v>0.1637163097246367</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2195379291533139</v>
+        <v>0.2169070905783607</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>287577</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>275488</v>
+        <v>276145</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>295569</v>
+        <v>295821</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9283090738778179</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8892834106312701</v>
+        <v>0.8914062278417114</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9541059419662405</v>
+        <v>0.9549220335197439</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>325</v>
@@ -3829,19 +3829,19 @@
         <v>334051</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>323986</v>
+        <v>324165</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>341330</v>
+        <v>341990</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9436578052518461</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9152252814095643</v>
+        <v>0.9157307785669222</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9642188296474099</v>
+        <v>0.9660855822001593</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>586</v>
@@ -3850,19 +3850,19 @@
         <v>621628</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>608601</v>
+        <v>606725</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>632776</v>
+        <v>633511</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9364945745681554</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9168683379499223</v>
+        <v>0.9140428878817271</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9532894589297162</v>
+        <v>0.9543960186695588</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>22209</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14217</v>
+        <v>13965</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34298</v>
+        <v>33641</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07169092612218209</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04589405803375934</v>
+        <v>0.04507796648025589</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1107165893687298</v>
+        <v>0.1085937721582884</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -3900,19 +3900,19 @@
         <v>19945</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12666</v>
+        <v>12006</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30010</v>
+        <v>29831</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05634219474815394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03578117035258985</v>
+        <v>0.03391441779984082</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08477471859043539</v>
+        <v>0.08426922143307809</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -3921,19 +3921,19 @@
         <v>42154</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>31006</v>
+        <v>30271</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>55181</v>
+        <v>57057</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06350542543184461</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04671054107028377</v>
+        <v>0.0456039813304408</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08313166205007741</v>
+        <v>0.08595711211827278</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>237815</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>229456</v>
+        <v>230019</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>243456</v>
+        <v>243683</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.951828092195075</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9183727286453014</v>
+        <v>0.9206265729802401</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.974405042022353</v>
+        <v>0.9753129114328181</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>340</v>
@@ -4046,19 +4046,19 @@
         <v>377611</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>368660</v>
+        <v>368176</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>383246</v>
+        <v>383240</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9707743629949023</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9477626701882483</v>
+        <v>0.9465188210518876</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9852617111568687</v>
+        <v>0.9852456294088635</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>551</v>
@@ -4067,19 +4067,19 @@
         <v>615426</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>603511</v>
+        <v>602749</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>623551</v>
+        <v>623370</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9633643430640907</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9447123060332601</v>
+        <v>0.9435208032068351</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9760825075628815</v>
+        <v>0.9757988443096509</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>12036</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6395</v>
+        <v>6168</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20395</v>
+        <v>19832</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04817190780492503</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02559495797764696</v>
+        <v>0.02468708856718203</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08162727135469856</v>
+        <v>0.07937342701975997</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>10</v>
@@ -4117,19 +4117,19 @@
         <v>11368</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5733</v>
+        <v>5739</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20319</v>
+        <v>20803</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0292256370050977</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01473828884313129</v>
+        <v>0.01475437059113652</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05223732981175161</v>
+        <v>0.05348117894811284</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>21</v>
@@ -4138,19 +4138,19 @@
         <v>23404</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>15279</v>
+        <v>15460</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35319</v>
+        <v>36081</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03663565693590928</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02391749243711835</v>
+        <v>0.02420115569034907</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05528769396673951</v>
+        <v>0.05647919679316487</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1846202</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1782047</v>
+        <v>1779741</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1898667</v>
+        <v>1904940</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5387573310512408</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5200356809354589</v>
+        <v>0.5193627601244921</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5540675827139039</v>
+        <v>0.5558982610519254</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2220</v>
@@ -4263,19 +4263,19 @@
         <v>2404125</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2348960</v>
+        <v>2347097</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2460196</v>
+        <v>2461353</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6756370241573237</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6601338365420476</v>
+        <v>0.659610090325742</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6913946947942763</v>
+        <v>0.6917199729553822</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3936</v>
@@ -4284,19 +4284,19 @@
         <v>4250328</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4161495</v>
+        <v>4161814</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4331124</v>
+        <v>4332410</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.608485909930736</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5957684434175808</v>
+        <v>0.5958140555911067</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.620052955198685</v>
+        <v>0.6202370141580524</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>1580577</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1528112</v>
+        <v>1521839</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1644732</v>
+        <v>1647038</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4612426689487593</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4459324172860959</v>
+        <v>0.4441017389480746</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.479964319064541</v>
+        <v>0.480637239875508</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1078</v>
@@ -4334,19 +4334,19 @@
         <v>1154184</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1098113</v>
+        <v>1096956</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1209349</v>
+        <v>1211212</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3243629758426763</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3086053052057233</v>
+        <v>0.3082800270446172</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3398661634579523</v>
+        <v>0.3403899096742574</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2571</v>
@@ -4355,19 +4355,19 @@
         <v>2734760</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2653964</v>
+        <v>2652678</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2823593</v>
+        <v>2823274</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.391514090069264</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3799470448013148</v>
+        <v>0.3797629858419475</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.404231556582419</v>
+        <v>0.4041859444088932</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>124685</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105577</v>
+        <v>106147</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>142795</v>
+        <v>144371</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2972498491753357</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2516967638064826</v>
+        <v>0.2530555647916624</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3404225030274415</v>
+        <v>0.3441804619473645</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>138</v>
@@ -4723,19 +4723,19 @@
         <v>137271</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>119679</v>
+        <v>119316</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>156631</v>
+        <v>156418</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3468596242923381</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.302405958681808</v>
+        <v>0.3014887690187422</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3957764290362796</v>
+        <v>0.3952388599037724</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>256</v>
@@ -4744,19 +4744,19 @@
         <v>261957</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>237089</v>
+        <v>235257</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>288928</v>
+        <v>289726</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3213333662994763</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2908291874346655</v>
+        <v>0.2885817136814602</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3544179374749333</v>
+        <v>0.3553973926553449</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>294778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>276668</v>
+        <v>275092</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>313886</v>
+        <v>313316</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7027501508246643</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6595774969725584</v>
+        <v>0.6558195380526353</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7483032361935174</v>
+        <v>0.7469444352083375</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>266</v>
@@ -4794,19 +4794,19 @@
         <v>258484</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>239124</v>
+        <v>239337</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276076</v>
+        <v>276439</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6531403757076618</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6042235709637208</v>
+        <v>0.6047611400962277</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6975940413181919</v>
+        <v>0.6985112309812578</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>541</v>
@@ -4815,19 +4815,19 @@
         <v>553261</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>526290</v>
+        <v>525492</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>578129</v>
+        <v>579961</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6786666337005236</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6455820625250667</v>
+        <v>0.6446026073446551</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7091708125653345</v>
+        <v>0.7114182863185398</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>167985</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>145818</v>
+        <v>147018</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>189664</v>
+        <v>191556</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2844815734276046</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2469416300227038</v>
+        <v>0.2489742988252637</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3211943598136436</v>
+        <v>0.3243980033048667</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>231</v>
@@ -4940,19 +4940,19 @@
         <v>224936</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>201334</v>
+        <v>203343</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>247075</v>
+        <v>247647</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.399145914853039</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3572635214246221</v>
+        <v>0.3608295177272881</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4384302442419655</v>
+        <v>0.4394450487283634</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>391</v>
@@ -4961,19 +4961,19 @@
         <v>392921</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>361878</v>
+        <v>360602</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>425973</v>
+        <v>425889</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3404747525164669</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3135744890623091</v>
+        <v>0.3124696567704648</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3691143975677008</v>
+        <v>0.3690416199092774</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>422511</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>400832</v>
+        <v>398940</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>444678</v>
+        <v>443478</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7155184265723954</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6788056401863564</v>
+        <v>0.6756019966951332</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7530583699772961</v>
+        <v>0.7510257011747362</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>348</v>
@@ -5011,19 +5011,19 @@
         <v>338608</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>316469</v>
+        <v>315897</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>362210</v>
+        <v>360201</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.600854085146961</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5615697557580345</v>
+        <v>0.5605549512716367</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6427364785753779</v>
+        <v>0.639170482272712</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>755</v>
@@ -5032,19 +5032,19 @@
         <v>761119</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>728067</v>
+        <v>728151</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>792162</v>
+        <v>793438</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.659525247483533</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6308856024322991</v>
+        <v>0.6309583800907226</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.686425510937691</v>
+        <v>0.6875303432295354</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>223022</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>199507</v>
+        <v>197277</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>248353</v>
+        <v>249233</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3333185396898984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2981734072803034</v>
+        <v>0.2948399143759107</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3711756394382419</v>
+        <v>0.3724910555423383</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>313</v>
@@ -5157,19 +5157,19 @@
         <v>315427</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>288946</v>
+        <v>291369</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>338703</v>
+        <v>339975</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4769186334038841</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4368789605829</v>
+        <v>0.44054344145734</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5121111856717628</v>
+        <v>0.5140347728427228</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>524</v>
@@ -5178,19 +5178,19 @@
         <v>538450</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>504084</v>
+        <v>500550</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>573825</v>
+        <v>574993</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4047024911228617</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3788729955379924</v>
+        <v>0.3762168612453071</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4312906847467456</v>
+        <v>0.4321685628699705</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>446075</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>420744</v>
+        <v>419864</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>469590</v>
+        <v>471820</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6666814603101016</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6288243605617581</v>
+        <v>0.6275089444576619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7018265927196966</v>
+        <v>0.7051600856240896</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>352</v>
@@ -5228,19 +5228,19 @@
         <v>345959</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>322683</v>
+        <v>321411</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>372440</v>
+        <v>370017</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5230813665961159</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4878888143282371</v>
+        <v>0.4859652271572772</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5631210394171</v>
+        <v>0.55945655854266</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>779</v>
@@ -5249,19 +5249,19 @@
         <v>792033</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>756658</v>
+        <v>755490</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>826399</v>
+        <v>829933</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5952975088771383</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5687093152532543</v>
+        <v>0.5678314371300289</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6211270044620077</v>
+        <v>0.6237831387546927</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>333615</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>305604</v>
+        <v>306405</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>360651</v>
+        <v>360359</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.516393760097853</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4730358836504923</v>
+        <v>0.474275191323582</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5582424485203739</v>
+        <v>0.5577905843675485</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>354</v>
@@ -5374,19 +5374,19 @@
         <v>383218</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>359498</v>
+        <v>359779</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>408683</v>
+        <v>410092</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5904038637303107</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5538600409501301</v>
+        <v>0.5542929836497175</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.629637835307626</v>
+        <v>0.6318079890917813</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>654</v>
@@ -5395,19 +5395,19 @@
         <v>716833</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>679574</v>
+        <v>679898</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>753223</v>
+        <v>755733</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5534853479555384</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5247165723052137</v>
+        <v>0.5249667244516583</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5815828782926696</v>
+        <v>0.5835214471459326</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>312433</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>285397</v>
+        <v>285689</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>340444</v>
+        <v>339643</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.483606239902147</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.441757551479626</v>
+        <v>0.4422094156324513</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5269641163495071</v>
+        <v>0.525724808676418</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>248</v>
@@ -5445,19 +5445,19 @@
         <v>265859</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>240394</v>
+        <v>238985</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>289579</v>
+        <v>289298</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4095961362696893</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.370362164692374</v>
+        <v>0.3681920109082188</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.44613995904987</v>
+        <v>0.4457070163502825</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>530</v>
@@ -5466,19 +5466,19 @@
         <v>578292</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>541902</v>
+        <v>539392</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>615551</v>
+        <v>615227</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4465146520444616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4184171217073305</v>
+        <v>0.4164785528540675</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4752834276947864</v>
+        <v>0.4750332755483418</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>305422</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>282485</v>
+        <v>283106</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>326874</v>
+        <v>327030</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6390676035604254</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.591073901172009</v>
+        <v>0.5923741239241804</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6839535872912839</v>
+        <v>0.684279634391975</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>344</v>
@@ -5591,19 +5591,19 @@
         <v>391358</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>370771</v>
+        <v>369915</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>410084</v>
+        <v>409510</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7876805676931274</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7462455498826551</v>
+        <v>0.7445211188535941</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8253697323232586</v>
+        <v>0.8242149466549029</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>616</v>
@@ -5612,19 +5612,19 @@
         <v>696780</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>668316</v>
+        <v>664783</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>726524</v>
+        <v>724747</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7148171958560026</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6856156515995687</v>
+        <v>0.6819916654774257</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7453312266644576</v>
+        <v>0.7435077755154254</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>172496</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>151044</v>
+        <v>150888</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195433</v>
+        <v>194812</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3609323964395746</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3160464127087161</v>
+        <v>0.3157203656080255</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.408926098827991</v>
+        <v>0.4076258760758197</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>89</v>
@@ -5662,19 +5662,19 @@
         <v>105491</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>86765</v>
+        <v>87339</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>126078</v>
+        <v>126934</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2123194323068726</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1746302676767413</v>
+        <v>0.175785053345097</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2537544501173447</v>
+        <v>0.2554788811464058</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>241</v>
@@ -5683,19 +5683,19 @@
         <v>277987</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>248243</v>
+        <v>250020</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>306451</v>
+        <v>309984</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2851828041439975</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2546687733355424</v>
+        <v>0.2564922244845748</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3143843484004313</v>
+        <v>0.3180083345225746</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>292612</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>279629</v>
+        <v>277628</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>303542</v>
+        <v>302649</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8752203915819418</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.836386609582893</v>
+        <v>0.8303998733378756</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9079126876331484</v>
+        <v>0.9052395789012705</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>316</v>
@@ -5808,19 +5808,19 @@
         <v>335888</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>320285</v>
+        <v>321662</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>346615</v>
+        <v>347705</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.889151110316355</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8478487447782641</v>
+        <v>0.851495026965287</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.917549181498888</v>
+        <v>0.9204347005255875</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>599</v>
@@ -5829,19 +5829,19 @@
         <v>628500</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>609842</v>
+        <v>607951</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>644232</v>
+        <v>644970</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8826105830103259</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.856409501144195</v>
+        <v>0.8537538896677525</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9047032624530097</v>
+        <v>0.9057394371037225</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>41718</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30788</v>
+        <v>31681</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>54701</v>
+        <v>56702</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1247796084180583</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09208731236685164</v>
+        <v>0.09476042109872952</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.163613390417107</v>
+        <v>0.1696001266621243</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -5879,19 +5879,19 @@
         <v>41874</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31147</v>
+        <v>30057</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>57477</v>
+        <v>56100</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.110848889683645</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08245081850111216</v>
+        <v>0.07956529947441254</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.152151255221736</v>
+        <v>0.1485049730347133</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>80</v>
@@ -5900,19 +5900,19 @@
         <v>83592</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>67860</v>
+        <v>67122</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>102250</v>
+        <v>104141</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1173894169896741</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09529673754699045</v>
+        <v>0.0942605628962771</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.143590498855805</v>
+        <v>0.1462461103322476</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>239504</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>230882</v>
+        <v>230588</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>245993</v>
+        <v>245549</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9319291333949045</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8983786670686189</v>
+        <v>0.8972381494930087</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9571788230799516</v>
+        <v>0.9554526064018828</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>289</v>
@@ -6025,19 +6025,19 @@
         <v>384803</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>374463</v>
+        <v>373228</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>391111</v>
+        <v>391234</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9616012797171285</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9357629005442363</v>
+        <v>0.9326752854321211</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9773633327377155</v>
+        <v>0.9776721180240566</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>571</v>
@@ -6046,19 +6046,19 @@
         <v>624307</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>610490</v>
+        <v>611285</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>633649</v>
+        <v>633817</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.949997406901895</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9289727704765532</v>
+        <v>0.9301828205605366</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9642128987255186</v>
+        <v>0.9644690176656855</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>17494</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11005</v>
+        <v>11449</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>26116</v>
+        <v>26410</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06807086660509555</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04282117692004839</v>
+        <v>0.04454739359811724</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1016213329313811</v>
+        <v>0.1027618505069914</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>12</v>
@@ -6096,19 +6096,19 @@
         <v>15366</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9058</v>
+        <v>8935</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25706</v>
+        <v>26941</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0383987202828715</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02263666726228458</v>
+        <v>0.02232788197594331</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06423709945576382</v>
+        <v>0.06732471456787895</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -6117,19 +6117,19 @@
         <v>32860</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>23518</v>
+        <v>23350</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>46677</v>
+        <v>45882</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05000259309810498</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03578710127448149</v>
+        <v>0.03553098233431453</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07102722952344731</v>
+        <v>0.06981717943946354</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1686846</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1626491</v>
+        <v>1630871</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1744298</v>
+        <v>1750011</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4969571176811913</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4791758801188047</v>
+        <v>0.4804664174383064</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5138827481849355</v>
+        <v>0.5155657601347958</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1985</v>
@@ -6242,19 +6242,19 @@
         <v>2172901</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2113195</v>
+        <v>2119305</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2228677</v>
+        <v>2235107</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.613027418908783</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5961827988013536</v>
+        <v>0.5979066979750358</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6287630837305335</v>
+        <v>0.6305770440981406</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3611</v>
@@ -6263,19 +6263,19 @@
         <v>3859748</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3780428</v>
+        <v>3771424</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3941075</v>
+        <v>3942104</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5562484335355922</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5448172685143606</v>
+        <v>0.5435196737757257</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5679689396079676</v>
+        <v>0.568117186863942</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>1707504</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1650052</v>
+        <v>1644339</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1767859</v>
+        <v>1763479</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5030428823188087</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4861172518150644</v>
+        <v>0.4844342398652042</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5208241198811953</v>
+        <v>0.5195335825616936</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1353</v>
@@ -6313,19 +6313,19 @@
         <v>1371641</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1315865</v>
+        <v>1309435</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1431347</v>
+        <v>1425237</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.386972581091217</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3712369162694664</v>
+        <v>0.3694229559018593</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4038172011986463</v>
+        <v>0.4020933020249641</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2958</v>
@@ -6334,19 +6334,19 @@
         <v>3079144</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2997817</v>
+        <v>2996788</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3158464</v>
+        <v>3167468</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4437515664644078</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4320310603920324</v>
+        <v>0.431882813136058</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4551827314856394</v>
+        <v>0.4564803262242741</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>83223</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58159</v>
+        <v>59509</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>109688</v>
+        <v>111835</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2040815258913523</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1426182962965181</v>
+        <v>0.1459290688173059</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2689784668731481</v>
+        <v>0.274244315497453</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -6702,19 +6702,19 @@
         <v>82561</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64178</v>
+        <v>62554</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>109193</v>
+        <v>104665</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2277459126491083</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1770375024235451</v>
+        <v>0.1725574371897504</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3012129384417618</v>
+        <v>0.2887204169250191</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>76</v>
@@ -6723,19 +6723,19 @@
         <v>165784</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>131957</v>
+        <v>134140</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>199899</v>
+        <v>202404</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2152181836579585</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1713045411247844</v>
+        <v>0.1741392112171853</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2595060075783051</v>
+        <v>0.2627581866124793</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>324570</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>298105</v>
+        <v>295958</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>349634</v>
+        <v>348284</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7959184741086478</v>
+        <v>0.7959184741086477</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7310215331268518</v>
+        <v>0.7257556845025471</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8573817037034818</v>
+        <v>0.8540709311826941</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>163</v>
@@ -6773,19 +6773,19 @@
         <v>279951</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>253319</v>
+        <v>257847</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298334</v>
+        <v>299958</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7722540873508916</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6987870615582387</v>
+        <v>0.7112795830749807</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.822962497576455</v>
+        <v>0.8274425628102494</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>303</v>
@@ -6794,19 +6794,19 @@
         <v>604521</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>570406</v>
+        <v>567901</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>638348</v>
+        <v>636165</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7847818163420417</v>
+        <v>0.7847818163420416</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7404939924216949</v>
+        <v>0.7372418133875207</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8286954588752157</v>
+        <v>0.8258607887828147</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>99973</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78147</v>
+        <v>77517</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123495</v>
+        <v>123651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2096360407101221</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1638679137487365</v>
+        <v>0.1625463711063425</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2589589744290721</v>
+        <v>0.2592854587708066</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>99</v>
@@ -6919,19 +6919,19 @@
         <v>109218</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91192</v>
+        <v>92026</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>130057</v>
+        <v>132531</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2176823254852133</v>
+        <v>0.2176823254852134</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1817550050732371</v>
+        <v>0.1834161265803515</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2592155201263384</v>
+        <v>0.2641466387571637</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>164</v>
@@ -6940,19 +6940,19 @@
         <v>209192</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>183499</v>
+        <v>179395</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>242294</v>
+        <v>242007</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2137613105727947</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1875071305492598</v>
+        <v>0.1833132184699219</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2475866551348732</v>
+        <v>0.2472930106486358</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>376917</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>353395</v>
+        <v>353239</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>398743</v>
+        <v>399373</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7903639592898779</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.741041025570928</v>
+        <v>0.7407145412291932</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8361320862512637</v>
+        <v>0.8374536288936575</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>362</v>
@@ -6990,19 +6990,19 @@
         <v>392515</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>371676</v>
+        <v>369202</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>410541</v>
+        <v>409707</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7823176745147864</v>
+        <v>0.7823176745147867</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7407844798736615</v>
+        <v>0.7358533612428365</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8182449949267628</v>
+        <v>0.8165838734196484</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>599</v>
@@ -7011,19 +7011,19 @@
         <v>769431</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>736329</v>
+        <v>736616</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>795124</v>
+        <v>799228</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7862386894272052</v>
+        <v>0.7862386894272053</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7524133448651269</v>
+        <v>0.752706989351364</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8124928694507403</v>
+        <v>0.8166867815300781</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>123071</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103179</v>
+        <v>103783</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146211</v>
+        <v>144901</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.198234761662294</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1661929208499295</v>
+        <v>0.1671662322108001</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2355058860253434</v>
+        <v>0.2333962871515323</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>222</v>
@@ -7136,19 +7136,19 @@
         <v>158176</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>139485</v>
+        <v>139119</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>176685</v>
+        <v>177320</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2538146476302031</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2238225413226997</v>
+        <v>0.2232363218773081</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2835161899403147</v>
+        <v>0.2845338576751089</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>337</v>
@@ -7157,19 +7157,19 @@
         <v>281247</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>255286</v>
+        <v>254775</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>310626</v>
+        <v>309812</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2260773301698846</v>
+        <v>0.2260773301698845</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2052091531938701</v>
+        <v>0.2047981244094885</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2496932940626793</v>
+        <v>0.249039016532977</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>497766</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>474626</v>
+        <v>475936</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>517658</v>
+        <v>517054</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8017652383377061</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7644941139746564</v>
+        <v>0.7666037128484677</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8338070791500704</v>
+        <v>0.8328337677891999</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>626</v>
@@ -7207,19 +7207,19 @@
         <v>465017</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>446508</v>
+        <v>445873</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>483708</v>
+        <v>484074</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7461853523697969</v>
+        <v>0.746185352369797</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7164838100596853</v>
+        <v>0.7154661423248911</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7761774586772999</v>
+        <v>0.776763678122692</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1057</v>
@@ -7228,19 +7228,19 @@
         <v>962782</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>933403</v>
+        <v>934217</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>988743</v>
+        <v>989254</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7739226698301154</v>
+        <v>0.7739226698301153</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7503067059373209</v>
+        <v>0.7509609834670229</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.79479084680613</v>
+        <v>0.7952018755905113</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>209883</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>185907</v>
+        <v>183716</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>235999</v>
+        <v>232317</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2995681306201929</v>
+        <v>0.2995681306201928</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2653471067616753</v>
+        <v>0.262219867951084</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3368441693564601</v>
+        <v>0.331589213351061</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>408</v>
@@ -7353,19 +7353,19 @@
         <v>263262</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>244386</v>
+        <v>241136</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>284284</v>
+        <v>282942</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3572633348036092</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3316463433057651</v>
+        <v>0.3272367471173862</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3857913201591771</v>
+        <v>0.3839704409689064</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>605</v>
@@ -7374,19 +7374,19 @@
         <v>473145</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>440895</v>
+        <v>441016</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>508646</v>
+        <v>503360</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3291435778117515</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3067090331764257</v>
+        <v>0.306792690027539</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3538399885680485</v>
+        <v>0.350162205777993</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>490734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>464618</v>
+        <v>468300</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>514710</v>
+        <v>516901</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7004318693798072</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.66315583064354</v>
+        <v>0.6684107866489392</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7346528932383246</v>
+        <v>0.7377801320489158</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>733</v>
@@ -7424,19 +7424,19 @@
         <v>473624</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>452602</v>
+        <v>453944</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>492500</v>
+        <v>495750</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6427366651963908</v>
+        <v>0.6427366651963907</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6142086798408228</v>
+        <v>0.6160295590310935</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6683536566942349</v>
+        <v>0.6727632528826136</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1201</v>
@@ -7445,19 +7445,19 @@
         <v>964359</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>928858</v>
+        <v>934144</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>996609</v>
+        <v>996488</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6708564221882484</v>
+        <v>0.6708564221882485</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6461600114319513</v>
+        <v>0.6498377942220069</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6932909668235742</v>
+        <v>0.693207309972461</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>260866</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>238897</v>
+        <v>237051</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>284815</v>
+        <v>284636</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.4281078519907922</v>
+        <v>0.4281078519907921</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3920548537880665</v>
+        <v>0.3890244820609635</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.467410637138162</v>
+        <v>0.4671175808070586</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>490</v>
@@ -7570,19 +7570,19 @@
         <v>301859</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>283832</v>
+        <v>282086</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>321007</v>
+        <v>320679</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4957821030506586</v>
+        <v>0.4957821030506587</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4661739537156907</v>
+        <v>0.4633049820127625</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5272298274374005</v>
+        <v>0.5266915716407314</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>774</v>
@@ -7591,19 +7591,19 @@
         <v>562726</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>530571</v>
+        <v>529119</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>595665</v>
+        <v>590075</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4619313381556607</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4355364087872616</v>
+        <v>0.4343439844337325</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4889707107385216</v>
+        <v>0.4843821622466777</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>348480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>324531</v>
+        <v>324710</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>370449</v>
+        <v>372295</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5718921480092077</v>
+        <v>0.5718921480092078</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.532589362861838</v>
+        <v>0.5328824191929415</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6079451462119334</v>
+        <v>0.6109755179390366</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>512</v>
@@ -7641,19 +7641,19 @@
         <v>306996</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>287848</v>
+        <v>288176</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>325023</v>
+        <v>326769</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5042178969493412</v>
+        <v>0.5042178969493413</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4727701725625994</v>
+        <v>0.4733084283592687</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5338260462843092</v>
+        <v>0.5366950179872377</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>891</v>
@@ -7662,19 +7662,19 @@
         <v>655476</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>622537</v>
+        <v>628127</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>687631</v>
+        <v>689083</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5380686618443392</v>
+        <v>0.5380686618443393</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5110292892614784</v>
+        <v>0.5156178377533224</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5644635912127385</v>
+        <v>0.5656560155662674</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>189240</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>170730</v>
+        <v>173460</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>207423</v>
+        <v>206413</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4648715753071442</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4194018971756511</v>
+        <v>0.4261079511853277</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5095379882440374</v>
+        <v>0.5070563694611326</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>490</v>
@@ -7787,19 +7787,19 @@
         <v>260916</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>245806</v>
+        <v>245243</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>275395</v>
+        <v>274548</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5941158971895076</v>
+        <v>0.5941158971895075</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5597100938445965</v>
+        <v>0.5584297399230916</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6270868322634566</v>
+        <v>0.6251567965798426</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>761</v>
@@ -7808,19 +7808,19 @@
         <v>450155</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>426392</v>
+        <v>427991</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>472640</v>
+        <v>471191</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5319439652329996</v>
+        <v>0.5319439652329997</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5038629956535235</v>
+        <v>0.5057518954734153</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5585133507447623</v>
+        <v>0.5568009482846292</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>217840</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>199657</v>
+        <v>200667</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236350</v>
+        <v>233620</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5351284246928558</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4904620117559628</v>
+        <v>0.4929436305388673</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5805981028243486</v>
+        <v>0.5738920488146724</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>337</v>
@@ -7858,19 +7858,19 @@
         <v>178250</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>163771</v>
+        <v>164618</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>193360</v>
+        <v>193923</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4058841028104925</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3729131677365434</v>
+        <v>0.3748432034201575</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4402899061554035</v>
+        <v>0.4415702600769083</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>636</v>
@@ -7879,19 +7879,19 @@
         <v>396091</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>373606</v>
+        <v>375055</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>419854</v>
+        <v>418255</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4680560347670003</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4414866492552378</v>
+        <v>0.4431990517153707</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4961370043464765</v>
+        <v>0.4942481045265847</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>195743</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>181826</v>
+        <v>182272</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>210590</v>
+        <v>210255</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6310263720612438</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.586161055966501</v>
+        <v>0.5876004630221621</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6788879587296179</v>
+        <v>0.6778093244375191</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>596</v>
@@ -8004,19 +8004,19 @@
         <v>307533</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>291106</v>
+        <v>292603</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>322108</v>
+        <v>322168</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.661917483547152</v>
+        <v>0.6619174835471519</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6265614892702034</v>
+        <v>0.6297829561016933</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6932882246256348</v>
+        <v>0.6934171983098277</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>894</v>
@@ -8025,19 +8025,19 @@
         <v>503276</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>482028</v>
+        <v>482864</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>525184</v>
+        <v>525561</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.649550057769602</v>
+        <v>0.6495500577696018</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6221271742675549</v>
+        <v>0.6232057128942839</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6778259614083281</v>
+        <v>0.6783124765126127</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>114455</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>99608</v>
+        <v>99943</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>128372</v>
+        <v>127926</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.368973627938756</v>
+        <v>0.3689736279387561</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3211120412703821</v>
+        <v>0.3221906755624806</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4138389440334988</v>
+        <v>0.4123995369778378</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>285</v>
@@ -8075,19 +8075,19 @@
         <v>157076</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>142501</v>
+        <v>142441</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>173503</v>
+        <v>172006</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.338082516452848</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3067117753743653</v>
+        <v>0.3065828016901723</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3734385107297967</v>
+        <v>0.3702170438983067</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>445</v>
@@ -8096,19 +8096,19 @@
         <v>271531</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>249623</v>
+        <v>249246</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>292779</v>
+        <v>291943</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.350449942230398</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.322174038591672</v>
+        <v>0.3216875234873873</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.377872825732445</v>
+        <v>0.3767942871057161</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1162000</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1104242</v>
+        <v>1103776</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1224424</v>
+        <v>1221803</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3289209929412851</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3125719783609309</v>
+        <v>0.3124399584707312</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3465911682209585</v>
+        <v>0.3458490884432784</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2349</v>
@@ -8221,19 +8221,19 @@
         <v>1483525</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1431428</v>
+        <v>1428805</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1538284</v>
+        <v>1538334</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3969876982928979</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3830466159447068</v>
+        <v>0.3823447356682616</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4116411238320196</v>
+        <v>0.4116545634969717</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3611</v>
@@ -8242,19 +8242,19 @@
         <v>2645524</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2564368</v>
+        <v>2562631</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2729441</v>
+        <v>2724299</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3639102766400566</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3527466889604401</v>
+        <v>0.3525076701828668</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3754536509548334</v>
+        <v>0.3747462531271659</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2370762</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2308338</v>
+        <v>2310959</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2428520</v>
+        <v>2428986</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6710790070587148</v>
+        <v>0.671079007058715</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6534088317790414</v>
+        <v>0.6541509115567217</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6874280216390692</v>
+        <v>0.6875600415292686</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3018</v>
@@ -8292,19 +8292,19 @@
         <v>2253429</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2198670</v>
+        <v>2198620</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2305526</v>
+        <v>2308149</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6030123017071023</v>
+        <v>0.6030123017071021</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5883588761679804</v>
+        <v>0.5883454365030283</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.616953384055293</v>
+        <v>0.6176552643317385</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5132</v>
@@ -8313,19 +8313,19 @@
         <v>4624192</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4540275</v>
+        <v>4545417</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4705348</v>
+        <v>4707085</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6360897233599434</v>
+        <v>0.6360897233599432</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6245463490451666</v>
+        <v>0.625253746872834</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6472533110395596</v>
+        <v>0.6474923298171331</v>
       </c>
     </row>
     <row r="27">
